--- a/PMS/forms/lecturer_final_form.xlsx
+++ b/PMS/forms/lecturer_final_form.xlsx
@@ -153,9 +153,6 @@
     <t>KHOA KỸ THUẬT</t>
   </si>
   <si>
-    <t>PHIẾU CHẤM ĐỒ ÁN CHUYÊN NGÀNH</t>
-  </si>
-  <si>
     <t>NGÀNH CÔNG NGHỆ THÔNG TIN</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Giảng viên</t>
+  </si>
+  <si>
+    <t>PHIẾU CHẤM ĐỒ ÁN TỐT NGHIỆP</t>
   </si>
 </sst>
 </file>
@@ -381,54 +381,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -436,8 +391,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,45 +731,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -777,223 +777,223 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="13"/>
+      <c r="J21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="3" t="s">
+      <c r="K21" s="13"/>
+      <c r="L21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5" t="s">
+      <c r="M21" s="13"/>
+      <c r="N21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="1">
         <v>10</v>
       </c>
@@ -1024,245 +1024,245 @@
       <c r="M22" s="1">
         <v>1</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:15" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1273,43 +1273,43 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="8"/>
+      <c r="O33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="10"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="25"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L37" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
+      <c r="L37" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1319,11 +1319,8 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:M34"/>
     <mergeCell ref="L36:O36"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:N22"/>
@@ -1332,8 +1329,11 @@
     <mergeCell ref="C8:N10"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
